--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-cement-plant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0130FED9-3DF7-0543-9616-A713FAB19E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22648D35-79ED-8444-B494-3E885A53E645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28340" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$463</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -431,13 +431,13 @@
     <t>Capture of CO2 from a cement plant for subsequent reuse. It is a standalone facility, so 100% of the needed steam heat (used to regenerate the sorbent) is from a dedicated source. CO2 chemical absorption-regeneration process using amines as scrubbing solvent. The amine solution used for this absorption was an aqueous solution of monoethanolamine (MEA) in a mass concentration of 30 wt.%, widely studied and considered as a benchmark for industrial CO2 capture applications. The CO2 is pre-compressed at 2 bar before storage. 10% of the CO2 is released back into the atmosphere (because the CO2 absoprtion rate is only 90%). The MEA makeup has been considered to 1 kg MEA per ton captured CO2 to compensate the losses due to the thermal degradation of the amine only, as the evaporation of the amine in the absorber is prevented by a flash tank. Does NOT include compression for transport or the transport itself. The rate of fossil vs. biogenic CO2 received from the cement plant need to be reflected in this dataset in two places: at the leakage level, but also at the storage level. At the storage level, we only indicate biogenic CO2. By default, we asusme 20% of the CO2 emissions are biogenic.</t>
   </si>
   <si>
-    <t>hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity</t>
-  </si>
-  <si>
-    <t>hydrogen, gaseous, 200 bar</t>
-  </si>
-  <si>
     <t>carbon dioxide storage from hard coal, post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from grid electricity</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 30 bar</t>
   </si>
 </sst>
 </file>
@@ -803,10 +803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="H321" sqref="H321"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H378" sqref="H378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -814,6 +815,7 @@
     <col min="1" max="1" width="59.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="32.5" customWidth="1"/>
     <col min="9" max="9" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -825,7 +827,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -833,7 +836,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -841,7 +844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -849,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -857,7 +860,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -865,7 +868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -873,12 +876,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -913,7 +916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -939,7 +942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -959,7 +962,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -979,7 +982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1039,7 +1042,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1159,10 +1162,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1210,12 +1213,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -1316,7 +1319,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1496,10 +1499,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1547,12 +1550,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -1833,10 +1836,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +1847,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1884,12 +1887,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>111</v>
       </c>
@@ -1950,7 +1953,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -2050,7 +2053,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>47</v>
       </c>
@@ -2170,13 +2173,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2224,12 +2227,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>73</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>76</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>78</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>80</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>82</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -2510,10 +2513,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2561,12 +2564,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>113</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>105</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>60</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>71</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>73</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>76</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>78</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>80</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>82</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>85</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>47</v>
       </c>
@@ -2847,10 +2850,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -2898,12 +2901,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>114</v>
       </c>
@@ -2964,7 +2967,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>106</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>71</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>73</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>76</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>78</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>80</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>82</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>85</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>47</v>
       </c>
@@ -3184,10 +3187,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -3235,12 +3238,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>115</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>64</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>60</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>71</v>
       </c>
@@ -3361,7 +3364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>73</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>76</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>78</v>
       </c>
@@ -3421,7 +3424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>80</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>82</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>85</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>47</v>
       </c>
@@ -3521,13 +3524,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>2</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>15</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>27</v>
       </c>
@@ -3591,12 +3594,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>12</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>105</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>107</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>119</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>60</v>
       </c>
@@ -3721,7 +3724,7 @@
     </row>
     <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B187" s="3">
         <f>0.01*B184</f>
@@ -3740,16 +3743,16 @@
         <v>38</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I187" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" s="3"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>2</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>6</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>27</v>
       </c>
@@ -3813,12 +3816,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>12</v>
       </c>
@@ -3847,7 +3850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>101</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>107</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>121</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>60</v>
       </c>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B203" s="3">
         <f>0.01*B200</f>
@@ -3962,16 +3965,16 @@
         <v>38</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I203" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="3"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>2</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -3987,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -4011,7 +4014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>27</v>
       </c>
@@ -4035,12 +4038,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>12</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>106</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>107</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>119</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>60</v>
       </c>
@@ -4165,7 +4168,7 @@
     </row>
     <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B219" s="3">
         <f>0.01*B216</f>
@@ -4184,16 +4187,16 @@
         <v>38</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I219" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" s="3"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>2</v>
       </c>
@@ -4201,7 +4204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -4217,7 +4220,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -4241,7 +4244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -4249,7 +4252,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>27</v>
       </c>
@@ -4257,12 +4260,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>12</v>
       </c>
@@ -4291,7 +4294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>102</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>107</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>119</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>60</v>
       </c>
@@ -4387,7 +4390,7 @@
     </row>
     <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B235" s="3">
         <f>0.01*B232</f>
@@ -4406,19 +4409,19 @@
         <v>38</v>
       </c>
       <c r="H235" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I235" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B236" s="3"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" s="3"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>2</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -4450,7 +4453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>15</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>27</v>
       </c>
@@ -4482,12 +4485,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>12</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>64</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>107</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>119</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -4612,7 +4615,7 @@
     </row>
     <row r="252" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B252" s="3">
         <f>0.01*B249</f>
@@ -4631,16 +4634,16 @@
         <v>38</v>
       </c>
       <c r="H252" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I252" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="3"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>2</v>
       </c>
@@ -4648,7 +4651,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -4672,7 +4675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>3</v>
       </c>
@@ -4688,7 +4691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>15</v>
       </c>
@@ -4696,7 +4699,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -4704,12 +4707,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>12</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>103</v>
       </c>
@@ -4762,7 +4765,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>107</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>119</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>60</v>
       </c>
@@ -4834,7 +4837,7 @@
     </row>
     <row r="268" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B268" s="3">
         <f>0.01*B265</f>
@@ -4853,19 +4856,19 @@
         <v>38</v>
       </c>
       <c r="H268" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I268" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B269" s="3"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B270" s="3"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>2</v>
       </c>
@@ -4873,7 +4876,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -4881,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>3</v>
       </c>
@@ -4913,7 +4916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -4921,7 +4924,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>27</v>
       </c>
@@ -4929,12 +4932,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>12</v>
       </c>
@@ -4963,7 +4966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>104</v>
       </c>
@@ -4987,7 +4990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>107</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>119</v>
       </c>
@@ -5033,7 +5036,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>60</v>
       </c>
@@ -5059,7 +5062,7 @@
     </row>
     <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B285" s="3">
         <f>0.01*B282</f>
@@ -5078,16 +5081,16 @@
         <v>38</v>
       </c>
       <c r="H285" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I285" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B286" s="3"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
         <v>2</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -5111,7 +5114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -5127,7 +5130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>3</v>
       </c>
@@ -5135,7 +5138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>15</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>27</v>
       </c>
@@ -5151,12 +5154,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
         <v>12</v>
       </c>
@@ -5185,7 +5188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>100</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>107</v>
       </c>
@@ -5232,7 +5235,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>121</v>
       </c>
@@ -5255,7 +5258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>60</v>
       </c>
@@ -5281,7 +5284,7 @@
     </row>
     <row r="301" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B301" s="3">
         <f>0.01*B298</f>
@@ -5300,16 +5303,16 @@
         <v>38</v>
       </c>
       <c r="H301" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I301" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B302" s="3"/>
     </row>
-    <row r="303" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>2</v>
       </c>
@@ -5317,7 +5320,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>3</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -5341,7 +5344,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -5357,7 +5360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>27</v>
       </c>
@@ -5365,7 +5368,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>54</v>
       </c>
@@ -5381,12 +5384,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>123</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>18</v>
       </c>
@@ -5456,7 +5459,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>119</v>
       </c>
@@ -5477,7 +5480,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>121</v>
       </c>
@@ -5498,7 +5501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>21</v>
       </c>
@@ -5519,7 +5522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>24</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>28</v>
       </c>
@@ -5560,9 +5563,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -5577,10 +5580,10 @@
         <v>22</v>
       </c>
       <c r="H321" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>31</v>
       </c>
@@ -5601,7 +5604,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="324" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
@@ -5609,7 +5613,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -5617,7 +5621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -5625,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>6</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -5641,7 +5645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -5649,7 +5653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>27</v>
       </c>
@@ -5657,7 +5661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -5665,7 +5669,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>54</v>
       </c>
@@ -5673,7 +5677,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>55</v>
       </c>
@@ -5681,12 +5685,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>124</v>
       </c>
@@ -5735,7 +5739,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>18</v>
       </c>
@@ -5756,7 +5760,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>119</v>
       </c>
@@ -5777,7 +5781,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>121</v>
       </c>
@@ -5798,7 +5802,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>21</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>24</v>
       </c>
@@ -5840,7 +5844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>28</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>31</v>
       </c>
@@ -5881,7 +5885,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="345" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>2</v>
       </c>
@@ -5889,7 +5894,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>3</v>
       </c>
@@ -5897,7 +5902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -5905,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -5913,7 +5918,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -5921,7 +5926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -5929,7 +5934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>27</v>
       </c>
@@ -5937,7 +5942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>15</v>
       </c>
@@ -5945,7 +5950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>54</v>
       </c>
@@ -5953,7 +5958,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>55</v>
       </c>
@@ -5961,12 +5966,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -5992,7 +5997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>125</v>
       </c>
@@ -6015,7 +6020,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>18</v>
       </c>
@@ -6036,7 +6041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>119</v>
       </c>
@@ -6057,7 +6062,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>121</v>
       </c>
@@ -6078,7 +6083,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>24</v>
       </c>
@@ -6099,7 +6104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>28</v>
       </c>
@@ -6120,7 +6125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>31</v>
       </c>
@@ -6141,7 +6146,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>2</v>
       </c>
@@ -6149,7 +6155,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>3</v>
       </c>
@@ -6157,7 +6163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -6165,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>6</v>
       </c>
@@ -6173,7 +6179,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -6181,7 +6187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -6189,7 +6195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>27</v>
       </c>
@@ -6197,7 +6203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>15</v>
       </c>
@@ -6205,12 +6211,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -6236,7 +6242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>107</v>
       </c>
@@ -6259,7 +6265,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>24</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>28</v>
       </c>
@@ -6304,7 +6310,7 @@
     </row>
     <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B378">
         <v>0.20300000000000001</v>
@@ -6319,10 +6325,10 @@
         <v>22</v>
       </c>
       <c r="H378" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>125</v>
       </c>
@@ -6342,7 +6348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>36</v>
       </c>
@@ -6366,7 +6372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>39</v>
       </c>
@@ -6390,7 +6396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>41</v>
       </c>
@@ -6414,7 +6420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>47</v>
       </c>
@@ -6438,7 +6444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>116</v>
       </c>
@@ -6461,14 +6467,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -6479,44 +6492,51 @@
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="E395" s="5"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B396" s="3"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B397" s="3"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B398" s="3"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B399" s="3"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B400" s="3"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B401" s="3"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B402" s="3"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B403" s="3"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B404" s="3"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -6527,44 +6547,51 @@
       <c r="H414" s="5"/>
       <c r="I414" s="5"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="E415" s="5"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B416" s="3"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B417" s="3"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B418" s="3"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B419" s="3"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B420" s="3"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B421" s="3"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B422" s="3"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B423" s="3"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B424" s="3"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -6575,44 +6602,51 @@
       <c r="H434" s="5"/>
       <c r="I434" s="5"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="E435" s="5"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B436" s="3"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B437" s="3"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B439" s="3"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B440" s="3"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B441" s="3"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B442" s="3"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B443" s="3"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B444" s="3"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -6623,35 +6657,41 @@
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="E455" s="5"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B456" s="3"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B457" s="3"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B458" s="3"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B459" s="3"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B460" s="3"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B461" s="3"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B462" s="3"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B463" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K463" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K463" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B294" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B278" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
